--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed1/result_data_KNN.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.636</v>
+        <v>-21.352</v>
       </c>
       <c r="B4" t="n">
-        <v>5.002000000000001</v>
+        <v>4.914</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.168</v>
+        <v>-22.178</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.89</v>
+        <v>-20.978</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.124000000000001</v>
+        <v>-8.007</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.84</v>
+        <v>-8.648</v>
       </c>
     </row>
     <row r="9">
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.794</v>
+        <v>6.322000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.374000000000001</v>
+        <v>-8.071000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.604000000000001</v>
+        <v>5.609</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.034000000000001</v>
+        <v>-8.260999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.67</v>
+        <v>-21.24</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.42</v>
+        <v>-8.430000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.406</v>
+        <v>5.179</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.922</v>
+        <v>5.790000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>6.3</v>
+        <v>7.491</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.632</v>
+        <v>-21.814</v>
       </c>
       <c r="B20" t="n">
-        <v>4.324</v>
+        <v>4.996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.802</v>
+        <v>6.115</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.162</v>
+        <v>-21.604</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.086</v>
+        <v>-21.5</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.425999999999999</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="31">
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>7.624000000000001</v>
+        <v>6.630999999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.006</v>
+        <v>-21.418</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.046000000000001</v>
+        <v>7.145</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.044</v>
+        <v>-21.021</v>
       </c>
       <c r="B40" t="n">
-        <v>7.431999999999999</v>
+        <v>7.042</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.388000000000002</v>
+        <v>-8.301</v>
       </c>
     </row>
     <row r="41">
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>4.474</v>
+        <v>6.251</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>5.412000000000001</v>
+        <v>6.101</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.868</v>
+        <v>6.786</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.403999999999999</v>
+        <v>-7.510999999999998</v>
       </c>
     </row>
     <row r="45">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.136</v>
+        <v>-21.489</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.296000000000001</v>
+        <v>6.146000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.837999999999999</v>
+        <v>6.258999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-20.924</v>
+        <v>-21.557</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.572</v>
+        <v>-21.646</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.12</v>
+        <v>-21.806</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.668</v>
+        <v>-22.257</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.788</v>
+        <v>-21.696</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.604</v>
+        <v>5.583</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.388</v>
+        <v>6.259</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.594</v>
+        <v>-21.527</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-21.908</v>
+        <v>-21.099</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-20.112</v>
+        <v>-20.458</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.188</v>
+        <v>5.792</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.472</v>
+        <v>5.468999999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,13 +1678,13 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.996</v>
+        <v>5.641999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.673999999999999</v>
+        <v>-8.347</v>
       </c>
     </row>
     <row r="90">
@@ -1712,12 +1712,12 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.314</v>
+        <v>-7.634</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.46</v>
+        <v>-21.566</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>6.973999999999999</v>
+        <v>5.923</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.668</v>
+        <v>-21.961</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
